--- a/OM_lb2.xlsx
+++ b/OM_lb2.xlsx
@@ -12,38 +12,71 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3.2'!$I$8:$L$10</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3.3'!$H$10:$L$12</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3.2'!$I$11:$L$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3.3'!$H$13:$L$13</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3.2'!$M$8:$M$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3.3'!$M$10:$M$12</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3.2'!$P$7</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3.3'!$P$10</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3.2'!$I$12:$L$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3.3'!$H$14:$L$14</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3.2'!$N$8:$N$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3.3'!$N$10:$N$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -402,7 +435,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,15 +661,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A14:D16"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -649,8 +682,11 @@
       <c r="D1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -663,6 +699,9 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -670,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -682,6 +721,9 @@
       </c>
       <c r="D3">
         <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -698,12 +740,16 @@
         <f xml:space="preserve"> (($H$2/10)+1)*80</f>
         <v>184</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f xml:space="preserve"> SUM(H3:J3)</f>
         <v>736</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f xml:space="preserve"> 276*2 + 92*3 + 46*4 + 92 + 46*2 + 138*2</f>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>7</v>
       </c>
@@ -724,8 +770,193 @@
         <v>184</v>
       </c>
       <c r="L4">
-        <f xml:space="preserve"> SUM(H4:K4)</f>
-        <v>690</v>
+        <v>46</v>
+      </c>
+      <c r="M4">
+        <f xml:space="preserve"> SUM(H4:L4)</f>
+        <v>736</v>
+      </c>
+      <c r="P4">
+        <f xml:space="preserve"> 276*2 + 92*3 + 46*3 + 138 + 138*2</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>276</v>
+      </c>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f xml:space="preserve"> 276*2+92*3+138+184*2</f>
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f xml:space="preserve"> 276*2+92*3+138+92+92*2</f>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>138</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>276</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>92</v>
+      </c>
+      <c r="L10">
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <f xml:space="preserve"> SUM(H10:L10)</f>
+        <v>414</v>
+      </c>
+      <c r="N10">
+        <v>414</v>
+      </c>
+      <c r="P10">
+        <f xml:space="preserve"> SUMPRODUCT(H10:L12,A1:E3)</f>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>138</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M12" si="0" xml:space="preserve"> SUM(H11:L11)</f>
+        <v>138</v>
+      </c>
+      <c r="N11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>92</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>92</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="N12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f xml:space="preserve"> SUM(H10:H12)</f>
+        <v>276</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:L13" si="1" xml:space="preserve"> SUM(I10:I12)</f>
+        <v>92</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f xml:space="preserve"> (($H$2/10)+1)*120</f>
+        <v>276</v>
+      </c>
+      <c r="I14">
+        <f xml:space="preserve"> (($H$2/10)+1)*40</f>
+        <v>92</v>
+      </c>
+      <c r="J14">
+        <f xml:space="preserve"> (($H$2/10)+1)*60</f>
+        <v>138</v>
+      </c>
+      <c r="K14">
+        <f xml:space="preserve"> (($H$2/10)+1)*80</f>
+        <v>184</v>
+      </c>
+      <c r="L14">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
